--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb2-Eng.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H2">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J2">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N2">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q2">
-        <v>198.9460629358283</v>
+        <v>554.0813038246445</v>
       </c>
       <c r="R2">
-        <v>1790.514566422454</v>
+        <v>4986.7317344218</v>
       </c>
       <c r="S2">
-        <v>0.02123374659230608</v>
+        <v>0.03576541247155161</v>
       </c>
       <c r="T2">
-        <v>0.02123374659230608</v>
+        <v>0.0357654124715516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H3">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J3">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q3">
-        <v>56.0945510631889</v>
+        <v>94.90849244311111</v>
       </c>
       <c r="R3">
-        <v>504.8509595687</v>
+        <v>854.176431988</v>
       </c>
       <c r="S3">
-        <v>0.00598703721454958</v>
+        <v>0.006126251428897301</v>
       </c>
       <c r="T3">
-        <v>0.005987037214549581</v>
+        <v>0.006126251428897299</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H4">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J4">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N4">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q4">
-        <v>11.81587350524311</v>
+        <v>25.98958885512</v>
       </c>
       <c r="R4">
-        <v>106.342861547188</v>
+        <v>233.90629969608</v>
       </c>
       <c r="S4">
-        <v>0.001261122035161882</v>
+        <v>0.001677602833651259</v>
       </c>
       <c r="T4">
-        <v>0.001261122035161882</v>
+        <v>0.001677602833651258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.325336333333333</v>
+        <v>2.242386666666667</v>
       </c>
       <c r="H5">
-        <v>3.976009</v>
+        <v>6.72716</v>
       </c>
       <c r="I5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="J5">
-        <v>0.02918077208126263</v>
+        <v>0.04442500453715972</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N5">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q5">
-        <v>6.547911185252556</v>
+        <v>13.25717459650222</v>
       </c>
       <c r="R5">
-        <v>58.931200667273</v>
+        <v>119.31457136852</v>
       </c>
       <c r="S5">
-        <v>0.0006988662392450902</v>
+        <v>0.0008557378030595597</v>
       </c>
       <c r="T5">
-        <v>0.0006988662392450903</v>
+        <v>0.0008557378030595596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>61.364557</v>
       </c>
       <c r="I6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J6">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N6">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O6">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P6">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q6">
-        <v>3070.475197352727</v>
+        <v>5054.280521227637</v>
       </c>
       <c r="R6">
-        <v>27634.27677617454</v>
+        <v>45488.52469104873</v>
       </c>
       <c r="S6">
-        <v>0.3277154184226248</v>
+        <v>0.3262489211255625</v>
       </c>
       <c r="T6">
-        <v>0.3277154184226249</v>
+        <v>0.3262489211255625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>61.364557</v>
       </c>
       <c r="I7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J7">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P7">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q7">
         <v>865.7468522094555</v>
@@ -883,10 +883,10 @@
         <v>7791.7216698851</v>
       </c>
       <c r="S7">
-        <v>0.09240217675899347</v>
+        <v>0.05588312229899391</v>
       </c>
       <c r="T7">
-        <v>0.09240217675899348</v>
+        <v>0.05588312229899389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>61.364557</v>
       </c>
       <c r="I8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J8">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N8">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O8">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P8">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q8">
-        <v>182.3627268492804</v>
+        <v>237.074724951774</v>
       </c>
       <c r="R8">
-        <v>1641.264541643524</v>
+        <v>2133.672524565966</v>
       </c>
       <c r="S8">
-        <v>0.01946378768525104</v>
+        <v>0.01530294428985696</v>
       </c>
       <c r="T8">
-        <v>0.01946378768525105</v>
+        <v>0.01530294428985696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>61.364557</v>
       </c>
       <c r="I9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="J9">
-        <v>0.4503674794711605</v>
+        <v>0.4052409520727612</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N9">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q9">
-        <v>101.0585411548032</v>
+        <v>120.9307711108421</v>
       </c>
       <c r="R9">
-        <v>909.5268703932289</v>
+        <v>1088.376939997579</v>
       </c>
       <c r="S9">
-        <v>0.01078609660429113</v>
+        <v>0.00780596435834782</v>
       </c>
       <c r="T9">
-        <v>0.01078609660429113</v>
+        <v>0.00780596435834782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H10">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J10">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N10">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O10">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P10">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q10">
-        <v>3548.289469975988</v>
+        <v>6863.922862306115</v>
       </c>
       <c r="R10">
-        <v>31934.60522978389</v>
+        <v>61775.30576075504</v>
       </c>
       <c r="S10">
-        <v>0.3787130960511687</v>
+        <v>0.4430595846651853</v>
       </c>
       <c r="T10">
-        <v>0.3787130960511688</v>
+        <v>0.4430595846651852</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H11">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J11">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P11">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q11">
-        <v>1000.470690011822</v>
+        <v>1175.7201815159</v>
       </c>
       <c r="R11">
-        <v>9004.236210106401</v>
+        <v>10581.4816336431</v>
       </c>
       <c r="S11">
-        <v>0.1067814099522693</v>
+        <v>0.07589160102097887</v>
       </c>
       <c r="T11">
-        <v>0.1067814099522693</v>
+        <v>0.07589160102097883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H12">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J12">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N12">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O12">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P12">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q12">
-        <v>210.7412376928818</v>
+        <v>321.9573226766939</v>
       </c>
       <c r="R12">
-        <v>1896.671139235936</v>
+        <v>2897.615904090246</v>
       </c>
       <c r="S12">
-        <v>0.02249265942580119</v>
+        <v>0.02078203390781191</v>
       </c>
       <c r="T12">
-        <v>0.02249265942580119</v>
+        <v>0.02078203390781191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.63794933333334</v>
+        <v>27.778539</v>
       </c>
       <c r="H13">
-        <v>70.913848</v>
+        <v>83.335617</v>
       </c>
       <c r="I13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900792</v>
       </c>
       <c r="J13">
-        <v>0.5204517484475769</v>
+        <v>0.5503340433900791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N13">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q13">
-        <v>116.7848409066729</v>
+        <v>164.229009667711</v>
       </c>
       <c r="R13">
-        <v>1051.063568160056</v>
+        <v>1478.061087009399</v>
       </c>
       <c r="S13">
-        <v>0.01246458301833773</v>
+        <v>0.0106008237961031</v>
       </c>
       <c r="T13">
-        <v>0.01246458301833773</v>
+        <v>0.01060082379610309</v>
       </c>
     </row>
   </sheetData>
